--- a/Отчетность/_ДисМат_I семестр/2023-2024_2ИСИП-822_Дискретная математика с элементами математической логики_I семестр.xlsx
+++ b/Отчетность/_ДисМат_I семестр/2023-2024_2ИСИП-822_Дискретная математика с элементами математической логики_I семестр.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2023\Downloads\KipFin_Lab_2023-24_Git0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2023\Downloads\KipFin_Lab_2023-24_Git0\Отчетность\_ДисМат_I семестр\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -526,7 +526,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
